--- a/coxaxle/src/test/resources/datasheets/AT_04_VerifyCustomers.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_04_VerifyCustomers.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,12 +68,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -101,10 +95,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,7 +424,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,7 +473,7 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/coxaxle/src/test/resources/datasheets/AT_04_VerifyCustomers.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_04_VerifyCustomers.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
